--- a/lab11/spreadsheet.xlsx
+++ b/lab11/spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">David Reidsma</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada</t>
   </si>
   <si>
     <t xml:space="preserve">5numbers.txt</t>
@@ -63,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="arial"/>
@@ -83,6 +89,24 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Tinos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tinos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +169,1134 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:rPr>
+              <a:t>File/Task/Execution Count Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$K$6:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.777E-006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000425104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003223612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.030793641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31601986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$L$6:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.000366211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00038596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000671658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001826992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01643959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.155426528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$M$6:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.000970649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001089302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000555062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001526702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0107726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104101525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$N$6:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.001599596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000642437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000741012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001546108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00857973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.088774777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$O$6:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.000865217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00078276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000989956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001468826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.010722025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09449115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="36950343"/>
+        <c:axId val="25290418"/>
+        <c:axId val="30634718"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="36950343"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25290418"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25290418"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36950343"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="30634718"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25290418"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>716040</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322920" y="2064960"/>
+          <a:ext cx="5410080" cy="6065640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>JAVA</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(1) The time that ThreadedArraySum takes for 1 thread is significantly greater than that </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>for ArraySum.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(2) The execution times for multiple threads are higher than the 1 threaded version </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>execution time up until 100000000numbers.txt. I have no satisfying explanation for this. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>The thread construction and deployment could be causing the massive increases in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>execution time, but that seems unlikely to me. I don’t know for sure. There could be an </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>error in my code. I don’t think it’s my machine, as I get similar numbers on the SSH </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>server as well.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(3) As stated previously, using more threads improves execution speed for the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>100000000numbers.txt file.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(4) I got 15589072 for execution time for 1,000,000 with just-in-time compilation. That’s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>still more than the single-threaded normally run version. That’s 9954362 more than the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>single-threaded non-JIT execution of ThreadedArraySum for 1 million values. If JIT is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>supposed to provide a speed boost, I’m not seeing it.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>Overall, I’m befuddled by these results. My best guess is an error in my code that I didn’t </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>see.  </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>ADA</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(1) The times with Tasked_Array_Sum and 1 task are consistently higher than the values </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>for array_sum. Not significantly higher, but it’s consistent.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(2) The execution times generally decrease as the amount of threads/tasks increases. This </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>data makes significantly more sense than my Java data. As has been done with Java, the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>Ada code is, evenly dividing (as much as possible) the values to sum up by the amount of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>tasks.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(3) It looks like decreases in execution time for 2 tasks begin at </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+              <a:ea typeface="Nimbus Sans"/>
+            </a:rPr>
+            <a:t>1000000 values. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t> For 4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>tasks, there are decreases in execution time for every file with the exception of 1000, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>100000, and 1000000, with which there are slight increases. These increases are very, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>very slight, and this is probably a statistical anomaly.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(4) After the weirdness that was my Java data, my Ada times demolish my Java times. I’ve </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>already described that I don’t have a good explanation for the Java time weirdness. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>However, one reason why Ada would run faster than Java is that Ada doesn’t need to run </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>through the JVM. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7023240" y="2275560"/>
+        <a:ext cx="5756400" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -153,16 +1304,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,29 +1325,6 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>100000000</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>1</v>
@@ -206,82 +1335,370 @@
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>150</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>324220</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>757456</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>760045</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1059088</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1259865</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2.22E-007</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>7.685E-006</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00074995</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.000897114</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.000760256</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.001369323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50104</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40751</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>576758</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>947500</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1059559</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1097947</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1129980</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4.791E-006</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>7.777E-006</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.000366211</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.000970649</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.001599596</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.000865217</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>506090</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>199585</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>898261</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>895065</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1197961</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1069024</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1173198</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6.0285E-005</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>7.2999E-005</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.00038596</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.001089302</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.000642437</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.00078276</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5059169</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1641171</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2089143</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2144097</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2305064</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>2089800</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2010074</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.000454745</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.000425104</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.000671658</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.000555062</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.000741012</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.000989956</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>50473230</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4777366</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5634710</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9355558</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10680319</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>13151269</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>14306487</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.002698779</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.003223612</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.001826992</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.001526702</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.001546108</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.001468826</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10000000</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>505053538</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>9579638</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9998578</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>11884194</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>14095982</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>17381412</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>18136544</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.027172096</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.030793641</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.01643959</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.0107726</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.00857973</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.010722025</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>100000000</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5050391777</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>54026093</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>55270098</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>38335015</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>35896958</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>37310551</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>39715808</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.271875188</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.31601986</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.155426528</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.104101525</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.088774777</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.09449115</v>
       </c>
     </row>
   </sheetData>
@@ -292,5 +1709,6 @@
     <oddHeader>&amp;C&amp;"Tinos,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Tinos,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab11/spreadsheet.xlsx
+++ b/lab11/spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">David Reidsma</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clojure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby</t>
   </si>
   <si>
     <t xml:space="preserve">5numbers.txt</t>
@@ -69,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="arial"/>
@@ -104,7 +110,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Tinos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="arial"/>
       <family val="2"/>
     </font>
@@ -232,7 +250,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -794,17 +812,45 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="36950343"/>
-        <c:axId val="25290418"/>
-        <c:axId val="30634718"/>
+        <c:axId val="31974352"/>
+        <c:axId val="95642927"/>
+        <c:axId val="73213786"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36950343"/>
+        <c:axId val="31974352"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>File</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -827,7 +873,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25290418"/>
+        <c:crossAx val="95642927"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25290418"/>
+        <c:axId val="95642927"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -851,6 +897,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -873,17 +947,45 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36950343"/>
+        <c:crossAx val="31974352"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="30634718"/>
+        <c:axId val="73213786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Thread count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -906,7 +1008,1300 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25290418"/>
+        <c:crossAx val="95642927"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:rPr>
+              <a:t>Clojure 10,000,000 Numbers Sum Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3749492321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1941675907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1329892138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1368278204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1328143819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="2979935"/>
+        <c:axId val="88473147"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2979935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Thread Counts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88473147"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88473147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2979935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:rPr>
+              <a:t>Ruby Number/Thread/Time Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="11"/>
+      <c:rotY val="25"/>
+      <c:rAngAx val="1"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="cccccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$W$6:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.099E-005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00065468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006596611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.065191788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$X$6:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000259164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000831536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006689695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.062232687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$Y$6:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000250003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000915799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006745534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.064044866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$Z$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$Z$6:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000350816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001025751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006763245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.065699806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Java!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Java!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000numbers.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000numbers.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Java!$AA$6:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000539243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001119398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.006890332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.065067651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="88614588"/>
+        <c:axId val="49132405"/>
+        <c:axId val="74300583"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88614588"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>File</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49132405"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49132405"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88614588"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="74300583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="arial"/>
+                  </a:rPr>
+                  <a:t>Thread Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49132405"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -957,8 +2352,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>716040</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -968,7 +2363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322920" y="2064960"/>
-          <a:ext cx="5410080" cy="6065640"/>
+          <a:ext cx="5410080" cy="14321160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,7 +2513,13 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Tinos"/>
             </a:rPr>
-            <a:t>see.  </a:t>
+            <a:t>see. Alternatively, the assignment said that parallelization doesn’t benefit Java as much as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>it does for many other languages; this could possibly be the issue.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Tinos"/>
@@ -1257,6 +2658,336 @@
               <a:latin typeface="Tinos"/>
             </a:rPr>
             <a:t>through the JVM. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>CLOJURE</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(1) Using threadedArraySum with 1 thread provides a performance increase starting at </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>100,000 numbers. Until then, arraySum is faster.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(2) 5numbers.txt and 1000numbers.txt have times that go mostly up. However, from that </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>point, the time slopes begin to turn downwards, with occasional fluctuations that can be </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>attributed to things such as other processes on the machine. The reason that there isn’t a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>significant performance increase for 5numbers.txt and 1000numbers.txt is that those have </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>few enough numbers that it’d be easier to just sum them rather than taking the time to split </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>the process into multiple threads.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(3) Aside from some fluctuations, the time would increase with more threads when the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>amount of numbers is low. As I discussed in the previous question, 5numbers.txt and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>1000numbers.txt do not benefit from multiple threads.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>RUBY</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(1) I actually found an interesting pattern. With the exception of 5numbers.txt, which has </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>an execution time increase from using 1 thread and threaded_array_sum.rb of 27 percent, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>there is an execution time increase of an almost constant percentage. It seems to be </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>increasing a little over time, but very little. The percentage increase is 23 percent from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>array_sum.rb to threaded_array_sum.rb with 1 thread.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(2) I don’t see a pattern of a time decrease. In the case of 100000numbers.txt and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>1000000numbers.txt, the times while using threaded_array_sum.rb are actually relatively </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>constant. In fact, I see a time INCREASE in many cases. I don’t understand completely </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>why this is happening. This could be a similar situation to my Java data. I don’t think that </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>there was anything running on my machine that could have caused the slowdown. When </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>looking at the ruby-forum.com link in the assignment, I saw that different versions of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>Ruby have different implementations of parallelism. That could be the reason.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(3) My Ada times are better overall than my Ruby times. However, while Ruby has more </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>of this, both sets of times have periods where there doesn’t seem to be much change.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Tinos"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>(4) One major difference is the usage of a lock. Instead of joining threads like Java does, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>Ruby uses a lock to synchronize multiple threads. This is also quite different to Ada, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>which asks each thread to report the result when finished. It’s also very different to the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>Clojure method, which starts threads which report to a channel, which is pulled from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>when needed. Based on the ruby-forum.com discussion, the version of Ruby that I’ve </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>been using (2.7) might be using a (G)lobal (I)nterpreter (L)ock that prevents some </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>concurrency. This could explain my lack of time benefits. However, that discussion is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>from 2010, so it could be outdated. Given that the version discussed was 1.9.x of the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>MRI, which is what I believe I am using, there could have been updates in multithreading. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t> This link (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+              <a:hlinkClick r:id="rId1"/>
+            </a:rPr>
+            <a:t>https://www.rubyguides.com/2015/07/ruby-threads/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>) provides some additional </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>clarification. Code using MRI (Matz’s Ruby Interpreter) only benefits from multithreading </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>when the code is I/O bound. Wikipedia tells me that this is code that pauses because it’s </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>waiting for, as one would imagine, an input or output operation to finish. Clearly that’s not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>the case here; this problem is one that is CPU bound. This explains the lack of a clear </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Tinos"/>
+            </a:rPr>
+            <a:t>benefit from multithreading.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Tinos"/>
@@ -1269,15 +3000,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>380520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>53280</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1285,12 +3016,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7023240" y="2275560"/>
+        <a:off x="6696000" y="2266200"/>
         <a:ext cx="5756400" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12453480" y="2189880"/>
+        <a:ext cx="5756400" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>743040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="18764640" y="2142000"/>
+        <a:ext cx="5756400" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1299,15 +3090,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{00255D4D-FC7F-0000-470A-5F51497F0000}"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,10 +3170,46 @@
       <c r="O4" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="P4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -1417,11 +3252,47 @@
       </c>
       <c r="O5" s="0" t="n">
         <v>0.001369323</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>122289</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>3442905</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>5332895</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>5237493</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>5996121</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>12648028</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>2.269E-006</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>8.792E-006</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>0.000240049</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.000222649</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.000222617</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.000553907</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1000</v>
@@ -1464,11 +3335,47 @@
       </c>
       <c r="O6" s="0" t="n">
         <v>0.000865217</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2095680</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>5413111</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>6028181</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>6724553</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>7643599</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>6583126</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>5.9495E-005</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>8.099E-005</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0.000259164</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0.000250003</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.000350816</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0.000539243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10000</v>
@@ -1511,11 +3418,47 @@
       </c>
       <c r="O7" s="0" t="n">
         <v>0.00078276</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>11172554</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>15613414</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>13601856</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>15314507</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>13035147</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>12038000</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0.000509776</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0.00065468</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0.000831536</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0.000915799</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.001025751</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0.001119398</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100000</v>
@@ -1558,11 +3501,47 @@
       </c>
       <c r="O8" s="0" t="n">
         <v>0.000989956</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>63656706</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>53928491</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>43139432</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>37871386</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>35348505</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>38099734</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0.00504483</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0.006596611</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0.006689695</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0.006745534</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.006763245</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.006890332</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1000000</v>
@@ -1605,11 +3584,47 @@
       </c>
       <c r="O9" s="0" t="n">
         <v>0.001468826</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>66501392</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>403239114</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>250974146</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>171185946</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>333165575</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>148012026</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0.051676069</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>0.065191788</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>0.062232687</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>0.064044866</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>0.065699806</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>0.065067651</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10000000</v>
@@ -1652,11 +3667,47 @@
       </c>
       <c r="O10" s="0" t="n">
         <v>0.010722025</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>5322924836</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3749492321</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1941675907</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1329892138</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1368278204</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>1328143819</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0.491769283</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0.626750552</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>0.728967143</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>0.771138241</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0.735899192</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.736602006</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>100000000</v>
@@ -1699,6 +3750,42 @@
       </c>
       <c r="O11" s="0" t="n">
         <v>0.09449115</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>70952886255</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>44019325856</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>22797161413</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>14377115721</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>8904221055</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>15734295964</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>4.898141695</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>6.599631626</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>9.240887859</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>7.531996352</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>8.309108789</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>8.398232648</v>
       </c>
     </row>
   </sheetData>

--- a/lab11/spreadsheet.xlsx
+++ b/lab11/spreadsheet.xlsx
@@ -250,7 +250,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -812,12 +812,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="31974352"/>
-        <c:axId val="95642927"/>
-        <c:axId val="73213786"/>
+        <c:axId val="12875631"/>
+        <c:axId val="1920953"/>
+        <c:axId val="2498574"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="31974352"/>
+        <c:axId val="12875631"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -873,7 +873,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95642927"/>
+        <c:crossAx val="1920953"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95642927"/>
+        <c:axId val="1920953"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -947,12 +947,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31974352"/>
+        <c:crossAx val="12875631"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="73213786"/>
+        <c:axId val="2498574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1008,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95642927"/>
+        <c:crossAx val="1920953"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1047,7 +1047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1423,11 +1423,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="2979935"/>
-        <c:axId val="88473147"/>
+        <c:axId val="61538249"/>
+        <c:axId val="29075016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2979935"/>
+        <c:axId val="61538249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1483,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88473147"/>
+        <c:crossAx val="29075016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88473147"/>
+        <c:axId val="29075016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1556,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2979935"/>
+        <c:crossAx val="61538249"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,7 +1604,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2106,12 +2106,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="88614588"/>
-        <c:axId val="49132405"/>
-        <c:axId val="74300583"/>
+        <c:axId val="34466510"/>
+        <c:axId val="82754610"/>
+        <c:axId val="35228085"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88614588"/>
+        <c:axId val="34466510"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2167,7 +2167,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49132405"/>
+        <c:crossAx val="82754610"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49132405"/>
+        <c:axId val="82754610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2240,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88614588"/>
+        <c:crossAx val="34466510"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="74300583"/>
+        <c:axId val="35228085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2301,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49132405"/>
+        <c:crossAx val="82754610"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3105,8 +3105,8 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
